--- a/teaching/traditional_assets/database/data/oman/oman_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_banks_regional.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.403</v>
+        <v>0.29</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>30.3</v>
       </c>
       <c r="L2">
-        <v>0.3457446808510638</v>
+        <v>0.3690621193666261</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>189.5</v>
+        <v>174.5</v>
       </c>
       <c r="V2">
-        <v>0.512023777357471</v>
+        <v>0.4665775401069518</v>
       </c>
       <c r="W2">
-        <v>0.07405297636001139</v>
+        <v>0.0804140127388535</v>
       </c>
       <c r="X2">
-        <v>0.05483315910007615</v>
+        <v>0.05374534097797576</v>
       </c>
       <c r="Y2">
-        <v>0.01921981725993524</v>
+        <v>0.02666867176087774</v>
       </c>
       <c r="Z2">
-        <v>0.5060565275908478</v>
+        <v>0.4383342231713828</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05483315910007615</v>
+        <v>0.05374534097797576</v>
       </c>
       <c r="AC2">
-        <v>-0.05483315910007615</v>
+        <v>-0.05374534097797576</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-189.5</v>
+        <v>-174.5</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-1.049280177187154</v>
+        <v>-0.87468671679198</v>
       </c>
       <c r="AK2">
-        <v>-1.01174586225307</v>
+        <v>-0.7515073212747632</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.403</v>
+        <v>0.29</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>26</v>
+        <v>30.3</v>
       </c>
       <c r="L3">
-        <v>0.3457446808510638</v>
+        <v>0.3690621193666261</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,31 +749,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>189.5</v>
+        <v>174.5</v>
       </c>
       <c r="V3">
-        <v>0.512023777357471</v>
+        <v>0.4665775401069518</v>
       </c>
       <c r="W3">
-        <v>0.07405297636001139</v>
+        <v>0.0804140127388535</v>
       </c>
       <c r="X3">
-        <v>0.05483315910007615</v>
+        <v>0.05374534097797576</v>
       </c>
       <c r="Y3">
-        <v>0.01921981725993524</v>
+        <v>0.02666867176087774</v>
       </c>
       <c r="Z3">
-        <v>0.5060565275908478</v>
+        <v>0.4383342231713828</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05483315910007615</v>
+        <v>0.05374534097797576</v>
       </c>
       <c r="AC3">
-        <v>-0.05483315910007615</v>
+        <v>-0.05374534097797576</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-189.5</v>
+        <v>-174.5</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-1.049280177187154</v>
+        <v>-0.87468671679198</v>
       </c>
       <c r="AK3">
-        <v>-1.01174586225307</v>
+        <v>-0.7515073212747632</v>
       </c>
       <c r="AL3">
         <v>0</v>
